--- a/test/resources/update/userBase.xlsx
+++ b/test/resources/update/userBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="utilisateurs" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t xml:space="preserve">NIVEAU HABILITATION</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">kcadmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ti_admin</t>
   </si>
   <si>
     <t xml:space="preserve">BEATGOUV</t>
@@ -374,11 +377,11 @@
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.96"/>
@@ -494,7 +497,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -510,35 +513,35 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>1</v>
@@ -568,11 +571,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -581,90 +584,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/test/resources/update/userBase.xlsx
+++ b/test/resources/update/userBase.xlsx
@@ -12,7 +12,7 @@
     <sheet name="zones" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">utilisateurs!$A$1:$K$1144</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">utilisateurs!$A$1:$M$1144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t xml:space="preserve">NIVEAU HABILITATION</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t xml:space="preserve">SCOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOARDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASKFORCE</t>
   </si>
   <si>
     <t xml:space="preserve">REGION ADM</t>
@@ -375,13 +381,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.96"/>
@@ -392,7 +398,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="24.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,55 +435,63 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="str">
+      <c r="N2" s="4" t="str">
         <f aca="false">RIGHT(H2,LEN(H2)-FIND("@",H2,1))</f>
         <v>shodo.fr</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="O2" s="4" t="n">
         <f aca="false">COUNTIF( H:H, H2)</f>
         <v>1</v>
       </c>
@@ -487,68 +501,70 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="n">
         <f aca="false">COUNTIF( H:H, H3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1144"/>
+  <autoFilter ref="A1:M1144"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="raphael.squelbut@shodo.fr"/>
     <hyperlink ref="H4" r:id="rId2" display="john.doux@beat.gouv.fr"/>
@@ -557,8 +573,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -575,7 +591,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -584,90 +600,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -770,8 +786,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>